--- a/data/states.xlsx
+++ b/data/states.xlsx
@@ -29,165 +29,84 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
-    <t>AC</t>
-  </si>
-  <si>
     <t>Acre</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>Alagoas</t>
   </si>
   <si>
-    <t>AM</t>
-  </si>
-  <si>
     <t>Amazonas</t>
   </si>
   <si>
-    <t>AP</t>
-  </si>
-  <si>
     <t>Amapá</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
     <t>Bahia</t>
   </si>
   <si>
-    <t>CE</t>
-  </si>
-  <si>
     <t>Ceará</t>
   </si>
   <si>
-    <t>DF</t>
-  </si>
-  <si>
     <t>Distrito Federal</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>Espírito Santo</t>
   </si>
   <si>
-    <t>GO</t>
-  </si>
-  <si>
     <t>Goiás</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>Maranhão</t>
   </si>
   <si>
-    <t>MG</t>
-  </si>
-  <si>
     <t>Minas Gerais</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>Mato Grosso do Sul</t>
   </si>
   <si>
-    <t>MT</t>
-  </si>
-  <si>
     <t>Mato Grosso</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>Pará</t>
   </si>
   <si>
-    <t>PB</t>
-  </si>
-  <si>
     <t>Paraíba</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>Pernambuco</t>
   </si>
   <si>
-    <t>PI</t>
-  </si>
-  <si>
     <t>Piauí</t>
   </si>
   <si>
-    <t>PR</t>
-  </si>
-  <si>
     <t>Paraná</t>
   </si>
   <si>
-    <t>RJ</t>
-  </si>
-  <si>
     <t>Rio de Janeiro</t>
   </si>
   <si>
-    <t>RN</t>
-  </si>
-  <si>
     <t>Rio Grande do Norte</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
     <t>Rondônia</t>
   </si>
   <si>
-    <t>RR</t>
-  </si>
-  <si>
     <t>Roraima</t>
   </si>
   <si>
-    <t>RS</t>
-  </si>
-  <si>
     <t>Rio Grande do Sul</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>Santa Catarina</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Sergipe</t>
   </si>
   <si>
-    <t>SP</t>
-  </si>
-  <si>
     <t>São Paulo</t>
   </si>
   <si>
-    <t>TO</t>
-  </si>
-  <si>
     <t>Tocantins</t>
   </si>
   <si>
@@ -195,6 +114,87 @@
   </si>
   <si>
     <t>estado</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>rj</t>
+  </si>
+  <si>
+    <t>rn</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,226 +522,226 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/states.xlsx
+++ b/data/states.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
   <si>
     <t>Acre</t>
   </si>
@@ -113,9 +113,6 @@
     <t>sigla</t>
   </si>
   <si>
-    <t>estado</t>
-  </si>
-  <si>
     <t>ac</t>
   </si>
   <si>
@@ -195,16 +192,230 @@
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>ACRE</t>
+  </si>
+  <si>
+    <t>ALAGOAS</t>
+  </si>
+  <si>
+    <t>AMAZONAS</t>
+  </si>
+  <si>
+    <t>AMAPÁ</t>
+  </si>
+  <si>
+    <t>BAHIA</t>
+  </si>
+  <si>
+    <t>CEARÁ</t>
+  </si>
+  <si>
+    <t>DISTRITO FEDERAL</t>
+  </si>
+  <si>
+    <t>ESPÍRITO SANTO</t>
+  </si>
+  <si>
+    <t>GOIÁS</t>
+  </si>
+  <si>
+    <t>MARANHÃO</t>
+  </si>
+  <si>
+    <t>MINAS GERAIS</t>
+  </si>
+  <si>
+    <t>MATO GROSSO DO SUL</t>
+  </si>
+  <si>
+    <t>MATO GROSSO</t>
+  </si>
+  <si>
+    <t>PARÁ</t>
+  </si>
+  <si>
+    <t>PARAÍBA</t>
+  </si>
+  <si>
+    <t>PERNAMBUCO</t>
+  </si>
+  <si>
+    <t>PIAUÍ</t>
+  </si>
+  <si>
+    <t>PARANÁ</t>
+  </si>
+  <si>
+    <t>RIO DE JANEIRO</t>
+  </si>
+  <si>
+    <t>RIO GRANDE DO NORTE</t>
+  </si>
+  <si>
+    <t>RONDÔNIA</t>
+  </si>
+  <si>
+    <t>RORAIMA</t>
+  </si>
+  <si>
+    <t>RIO GRANDE DO SUL</t>
+  </si>
+  <si>
+    <t>SANTA CATARINA</t>
+  </si>
+  <si>
+    <t>SERGIPE</t>
+  </si>
+  <si>
+    <t>SÃO PAULO</t>
+  </si>
+  <si>
+    <t>TOCANTINS</t>
+  </si>
+  <si>
+    <t>AMAPA</t>
+  </si>
+  <si>
+    <t>CEARA</t>
+  </si>
+  <si>
+    <t>ESPIRITO SANTO</t>
+  </si>
+  <si>
+    <t>GOIAS</t>
+  </si>
+  <si>
+    <t>MARANHAO</t>
+  </si>
+  <si>
+    <t>PARA</t>
+  </si>
+  <si>
+    <t>PARAIBA</t>
+  </si>
+  <si>
+    <t>PIAUI</t>
+  </si>
+  <si>
+    <t>PARANA</t>
+  </si>
+  <si>
+    <t>RONDONIA</t>
+  </si>
+  <si>
+    <t>SAO PAULO</t>
+  </si>
+  <si>
+    <t>estado_lower</t>
+  </si>
+  <si>
+    <t>estado_upper</t>
+  </si>
+  <si>
+    <t>estado_asci</t>
+  </si>
+  <si>
+    <t>sigla_upper</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>TO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,8 +441,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,239 +721,492 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
       <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
         <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/states.xlsx
+++ b/data/states.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
   <si>
     <t>Acre</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Tocantins</t>
   </si>
   <si>
-    <t>sigla</t>
-  </si>
-  <si>
     <t>ac</t>
   </si>
   <si>
@@ -399,6 +396,27 @@
   </si>
   <si>
     <t>TO</t>
+  </si>
+  <si>
+    <t>norte</t>
+  </si>
+  <si>
+    <t>nordeste</t>
+  </si>
+  <si>
+    <t>centro-oeste</t>
+  </si>
+  <si>
+    <t>sudeste</t>
+  </si>
+  <si>
+    <t>sul</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>state</t>
   </si>
 </sst>
 </file>
@@ -721,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,480 +751,564 @@
     <col min="4" max="5" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
